--- a/resource_api/raporlar/dosyalar/ocak_listesi_raporu.xlsx
+++ b/resource_api/raporlar/dosyalar/ocak_listesi_raporu.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
@@ -432,7 +432,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5199.43</v>
+        <v>4387.71</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -441,7 +441,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>149</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1357.16</v>
+        <v>1587.86</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3116.12</v>
+        <v>3017.44</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -479,7 +479,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
@@ -504,11 +504,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MEKMER</t>
+          <t>BEYZANUR</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1007.69</v>
+        <v>45</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -517,17 +517,17 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ÇIMENTO</t>
+          <t>MEKMER</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14548.57</v>
+        <v>965.27</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -536,17 +536,17 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>401</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KULA</t>
+          <t>ÇIMENTO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1235.73</v>
+        <v>17264.4</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -555,17 +555,17 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>69</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ALASEHIR</t>
+          <t>KULA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>867.78</v>
+        <v>1143.47</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -574,17 +574,17 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ANTALYA</t>
+          <t>ALASEHIR</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17.64</v>
+        <v>986.51</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -593,17 +593,17 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DEMİRELLER</t>
+          <t>ANTALYA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>475.89</v>
+        <v>17.64</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -612,17 +612,17 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DAZKIRI</t>
+          <t>DEMİRELLER</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>39.07</v>
+        <v>475.89</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -631,17 +631,17 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HISARLI</t>
+          <t>DAZKIRI</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.54</v>
+        <v>39.07</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -650,17 +650,17 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GENÇLER</t>
+          <t>HISARLI</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18.33</v>
+        <v>38.66</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -675,20 +675,58 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>GENÇLER</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Konya</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B16" t="n">
         <v>312.56</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BEKISOGLU</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>303.35</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/resource_api/raporlar/dosyalar/ocak_listesi_raporu.xlsx
+++ b/resource_api/raporlar/dosyalar/ocak_listesi_raporu.xlsx
@@ -432,7 +432,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4387.71</v>
+        <v>3997.85</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -441,7 +441,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1587.86</v>
+        <v>1294.76</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3017.44</v>
+        <v>2901.46</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -479,7 +479,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
@@ -504,11 +504,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BEYZANUR</t>
+          <t>MEKMER</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45</v>
+        <v>965.27</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -517,17 +517,17 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MEKMER</t>
+          <t>ÇIMENTO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>965.27</v>
+        <v>16125.42</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -536,17 +536,17 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>42</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ÇIMENTO</t>
+          <t>KULA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17264.4</v>
+        <v>742.0700000000001</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -555,17 +555,17 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>511</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>KULA</t>
+          <t>ALASEHIR</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1143.47</v>
+        <v>1047.97</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -574,17 +574,17 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ALASEHIR</t>
+          <t>ANTALYA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>986.51</v>
+        <v>17.64</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -593,17 +593,17 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ANTALYA</t>
+          <t>DEMİRELLER</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17.64</v>
+        <v>436.82</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -612,17 +612,17 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DEMİRELLER</t>
+          <t>DAZKIRI</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>475.89</v>
+        <v>39.07</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -631,17 +631,17 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DAZKIRI</t>
+          <t>HISARLI</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>39.07</v>
+        <v>38.66</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -656,11 +656,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HISARLI</t>
+          <t>HOROZ</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38.66</v>
+        <v>148.85</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>303.35</v>
+        <v>1332.06</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/resource_api/raporlar/dosyalar/ocak_listesi_raporu.xlsx
+++ b/resource_api/raporlar/dosyalar/ocak_listesi_raporu.xlsx
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1294.76</v>
+        <v>1182.27</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2901.46</v>
+        <v>2184.45</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -479,7 +479,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -504,11 +504,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MEKMER</t>
+          <t>BEYZANUR</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>965.27</v>
+        <v>270</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -517,17 +517,17 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ÇIMENTO</t>
+          <t>MEKMER</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16125.42</v>
+        <v>965.27</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -536,17 +536,17 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>481</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KULA</t>
+          <t>ÇIMENTO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>742.0700000000001</v>
+        <v>16497.36</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -555,17 +555,17 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>55</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ALASEHIR</t>
+          <t>KULA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1047.97</v>
+        <v>742.0700000000001</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -574,17 +574,17 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ANTALYA</t>
+          <t>ALASEHIR</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17.64</v>
+        <v>2235.47</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -593,17 +593,17 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DEMİRELLER</t>
+          <t>ANTALYA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>436.82</v>
+        <v>17.64</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -612,17 +612,17 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DAZKIRI</t>
+          <t>DEMİRELLER</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>39.07</v>
+        <v>436.82</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -631,17 +631,17 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HISARLI</t>
+          <t>DAZKIRI</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.66</v>
+        <v>39.07</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -656,11 +656,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HOROZ</t>
+          <t>HISARLI</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>148.85</v>
+        <v>38.66</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1332.06</v>
+        <v>1258.69</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
